--- a/Web/Edubase.IntegrationTest/Establishment Field Display Rules v1.0.xlsx
+++ b/Web/Edubase.IntegrationTest/Establishment Field Display Rules v1.0.xlsx
@@ -2690,7 +2690,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -4293,8 +4293,8 @@
       <c r="B25" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>145</v>
+      <c r="C25" s="86" t="s">
+        <v>257</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>97</v>
